--- a/Java data updated.xlsx
+++ b/Java data updated.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalla\OneDrive\Desktop\batch 1 certificates\Java certificates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StrongBase.edu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F876C020-D6FB-4F65-8346-6417AB129C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3183632-7F92-4986-9762-A6F282EB1D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{12E59528-F6FC-4500-98A8-B93B441994C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{12E59528-F6FC-4500-98A8-B93B441994C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="321">
   <si>
     <t>Timestamp</t>
   </si>
@@ -991,13 +982,19 @@
   </si>
   <si>
     <t>JV0110078</t>
+  </si>
+  <si>
+    <t>S P Vinitha</t>
+  </si>
+  <si>
+    <t>JV0110079</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1021,6 +1018,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1069,10 +1074,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1080,19 +1086,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1405,22 +1415,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C873B7DD-1C15-4B2E-86DD-4544BDFA173D}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79:F80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="36.7265625" customWidth="1"/>
-    <col min="3" max="3" width="27.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1450,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1460,7 +1470,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>210</v>
@@ -1478,7 +1488,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1498,7 +1508,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1518,7 +1528,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1538,7 +1548,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1558,7 +1568,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +1588,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>213</v>
@@ -1596,7 +1606,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1616,7 +1626,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,7 +1646,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1656,7 +1666,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>216</v>
@@ -1674,7 +1684,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -1694,7 +1704,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1714,7 +1724,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1734,7 +1744,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1754,7 +1764,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -1774,7 +1784,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1794,7 +1804,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -1814,7 +1824,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1834,7 +1844,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>53</v>
       </c>
@@ -1854,7 +1864,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -1874,7 +1884,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -1894,11 +1904,11 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1914,7 +1924,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -1934,7 +1944,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
         <v>219</v>
@@ -1952,7 +1962,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
@@ -1972,7 +1982,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -1992,7 +2002,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -2012,7 +2022,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>77</v>
       </c>
@@ -2032,7 +2042,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -2052,11 +2062,11 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2072,7 +2082,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -2092,7 +2102,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>89</v>
       </c>
@@ -2112,7 +2122,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
         <v>222</v>
@@ -2130,7 +2140,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>92</v>
       </c>
@@ -2150,7 +2160,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
         <v>225</v>
@@ -2168,7 +2178,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>95</v>
       </c>
@@ -2188,7 +2198,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>98</v>
       </c>
@@ -2208,7 +2218,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>101</v>
       </c>
@@ -2228,7 +2238,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
         <v>231</v>
@@ -2246,7 +2256,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
         <v>228</v>
@@ -2264,7 +2274,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>104</v>
       </c>
@@ -2284,7 +2294,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
@@ -2304,7 +2314,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>110</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>113</v>
       </c>
@@ -2344,7 +2354,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>116</v>
       </c>
@@ -2364,7 +2374,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>119</v>
       </c>
@@ -2384,7 +2394,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
@@ -2404,7 +2414,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>125</v>
       </c>
@@ -2424,7 +2434,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>128</v>
       </c>
@@ -2444,7 +2454,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>131</v>
       </c>
@@ -2464,7 +2474,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>134</v>
       </c>
@@ -2484,11 +2494,11 @@
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -2504,7 +2514,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>140</v>
       </c>
@@ -2524,7 +2534,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>143</v>
       </c>
@@ -2544,7 +2554,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>146</v>
       </c>
@@ -2564,7 +2574,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
       <c r="B59" s="5" t="s">
         <v>234</v>
@@ -2582,7 +2592,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>149</v>
       </c>
@@ -2602,7 +2612,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>152</v>
       </c>
@@ -2622,7 +2632,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>155</v>
       </c>
@@ -2642,7 +2652,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>158</v>
       </c>
@@ -2662,7 +2672,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>161</v>
       </c>
@@ -2682,7 +2692,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>164</v>
       </c>
@@ -2702,7 +2712,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>167</v>
       </c>
@@ -2722,7 +2732,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>170</v>
       </c>
@@ -2742,7 +2752,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>173</v>
       </c>
@@ -2762,7 +2772,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>176</v>
       </c>
@@ -2782,7 +2792,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>179</v>
       </c>
@@ -2802,7 +2812,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>237</v>
       </c>
@@ -2819,7 +2829,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>182</v>
       </c>
@@ -2839,7 +2849,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>185</v>
       </c>
@@ -2859,7 +2869,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>188</v>
       </c>
@@ -2879,7 +2889,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>191</v>
       </c>
@@ -2899,7 +2909,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>194</v>
       </c>
@@ -2919,7 +2929,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>197</v>
       </c>
@@ -2939,7 +2949,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>200</v>
       </c>
@@ -2959,7 +2969,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>203</v>
       </c>
@@ -2977,6 +2987,14 @@
       </c>
       <c r="F79" s="3" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C80" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2984,6 +3002,11 @@
     <sortCondition ref="B2:B79"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{9F90E17B-53F6-4BDE-A60C-3C1C7B87CFA6}"/>
+    <hyperlink ref="B25" r:id="rId2" xr:uid="{D21982AF-036E-4C88-96A9-B8F491D3BECB}"/>
+    <hyperlink ref="B55" r:id="rId3" xr:uid="{2DB8005E-09B2-47AD-BF7A-DB8F60DFD080}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Java data updated.xlsx
+++ b/Java data updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\StrongBase.edu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3183632-7F92-4986-9762-A6F282EB1D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A601FC0E-485F-434A-9B22-4F764FF5644B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{12E59528-F6FC-4500-98A8-B93B441994C8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="323">
   <si>
     <t>Timestamp</t>
   </si>
@@ -988,6 +988,12 @@
   </si>
   <si>
     <t>JV0110079</t>
+  </si>
+  <si>
+    <t>Mallepati Bharath</t>
+  </si>
+  <si>
+    <t>JV0110080</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C873B7DD-1C15-4B2E-86DD-4544BDFA173D}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79:F80"/>
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,6 +3003,14 @@
         <v>320</v>
       </c>
     </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F79">
     <sortCondition ref="B2:B79"/>
